--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -246,10 +246,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>時間範囲指定された上限下限量</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -335,7 +335,7 @@
 </t>
   </si>
   <si>
-    <t>薬剤の上限量</t>
+    <t>時間範囲（下限）</t>
   </si>
   <si>
     <t>The low limit. The boundary is inclusive.</t>
@@ -367,9 +367,6 @@
 </t>
   </si>
   <si>
-    <t>時間範囲（下限）</t>
-  </si>
-  <si>
     <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
   </si>
   <si>
@@ -434,12 +431,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -465,6 +456,12 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -499,24 +496,40 @@
     <t>Range.high</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
-  </si>
-  <si>
-    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+    <t>時間範囲（上限）</t>
+  </si>
+  <si>
+    <t>The high limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the high element is missing, the high boundary is not known.</t>
+  </si>
+  <si>
+    <t>NR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>Range.high.id</t>
+  </si>
+  <si>
+    <t>Range.high.extension</t>
+  </si>
+  <si>
+    <t>Range.high.value</t>
+  </si>
+  <si>
+    <t>Range.high.comparator</t>
+  </si>
+  <si>
+    <t>Range.high.unit</t>
+  </si>
+  <si>
+    <t>Range.high.system</t>
+  </si>
+  <si>
+    <t>Range.high.code</t>
   </si>
 </sst>
 </file>
@@ -823,7 +836,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -832,7 +845,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.8671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1638,16 +1651,16 @@
         <v>113</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L8" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>74</v>
@@ -1696,7 +1709,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -1711,15 +1724,15 @@
         <v>107</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1742,68 +1755,68 @@
         <v>102</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s" s="2">
+      <c r="Q9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W9" t="s" s="2">
+      <c r="X9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="X9" t="s" s="2">
+      <c r="Y9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1818,15 +1831,15 @@
         <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1852,14 +1865,14 @@
         <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -1884,11 +1897,13 @@
         <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X10" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y10" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>74</v>
@@ -1906,7 +1921,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1921,15 +1936,15 @@
         <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1952,17 +1967,17 @@
         <v>102</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -1987,11 +2002,11 @@
         <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>74</v>
@@ -2009,7 +2024,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2018,21 +2033,21 @@
         <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2055,19 +2070,19 @@
         <v>102</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2092,13 +2107,11 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
@@ -2116,7 +2129,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2131,15 +2144,15 @@
         <v>107</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2159,19 +2172,19 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2221,7 +2234,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2230,16 +2243,751 @@
         <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AJ13" t="s" s="2">
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>162</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
